--- a/output/Region.xlsx
+++ b/output/Region.xlsx
@@ -636,106 +636,106 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="C4" s="2">
-        <v>547096</v>
+        <v>547099.5</v>
       </c>
       <c r="D4" s="2">
-        <v>556171</v>
+        <v>556188</v>
       </c>
       <c r="E4" s="2">
-        <v>562281.5</v>
+        <v>562422</v>
       </c>
       <c r="F4" s="2">
-        <v>567646</v>
+        <v>567836</v>
       </c>
       <c r="G4" s="2">
-        <v>572679.5</v>
+        <v>572824.5</v>
       </c>
       <c r="H4" s="2">
-        <v>574760.5</v>
+        <v>574901</v>
       </c>
       <c r="I4" s="3">
-        <v>3500703811.614377</v>
+        <v>3403945650.980685</v>
       </c>
       <c r="J4" s="3">
-        <v>3418925655.959721</v>
+        <v>3339124992.38857</v>
       </c>
       <c r="K4" s="3">
-        <v>3385619740.36132</v>
+        <v>3313205988.753178</v>
       </c>
       <c r="L4" s="3">
-        <v>3388233981.6731</v>
+        <v>3334705803.215813</v>
       </c>
       <c r="M4" s="3">
-        <v>3328284598.142066</v>
+        <v>3315089128.545093</v>
       </c>
       <c r="N4" s="3">
-        <v>3526451102.780708</v>
+        <v>3512658901.238671</v>
       </c>
       <c r="O4" s="4">
-        <v>0.7467144563918757</v>
+        <v>0.7261336515513126</v>
       </c>
       <c r="P4" s="4">
-        <v>0.7556750298685783</v>
+        <v>0.7261336515513126</v>
       </c>
       <c r="Q4" s="4">
-        <v>0.7508960573476703</v>
+        <v>0.6963007159904535</v>
       </c>
       <c r="R4" s="4">
-        <v>0.8339307048984468</v>
+        <v>0.7589498806682577</v>
       </c>
       <c r="S4" s="4">
-        <v>0.6218637992831542</v>
+        <v>0.5262529832935561</v>
       </c>
       <c r="T4" s="5">
-        <v>6398.701163259057</v>
+        <v>6221.803622523298</v>
       </c>
       <c r="U4" s="5">
-        <v>6147.256250253467</v>
+        <v>6003.590498875506</v>
       </c>
       <c r="V4" s="5">
-        <v>6021.218447274754</v>
+        <v>5890.960859911558</v>
       </c>
       <c r="W4" s="5">
-        <v>5968.920738758135</v>
+        <v>5872.656547340805</v>
       </c>
       <c r="X4" s="5">
-        <v>5811.775344048574</v>
+        <v>5787.268401657215</v>
       </c>
       <c r="Y4" s="5">
-        <v>6135.514014586438</v>
+        <v>6110.023988893167</v>
       </c>
       <c r="Z4" s="5">
-        <v>-251.44491300559</v>
+        <v>-218.2131236477926</v>
       </c>
       <c r="AA4" s="5">
-        <v>-377.4827159843035</v>
+        <v>-330.84276261174</v>
       </c>
       <c r="AB4" s="5">
-        <v>-429.780424500922</v>
+        <v>-349.1470751824936</v>
       </c>
       <c r="AC4" s="5">
-        <v>-586.9258192104835</v>
+        <v>-434.5352208660834</v>
       </c>
       <c r="AD4" s="5">
-        <v>-263.1871486726195</v>
+        <v>-111.7796336301308</v>
       </c>
       <c r="AE4" s="4">
-        <v>-0.03929624256393949</v>
+        <v>-0.03507232578955854</v>
       </c>
       <c r="AF4" s="4">
-        <v>-0.05899364673440066</v>
+        <v>-0.05317473560465158</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.06716682238087546</v>
+        <v>-0.05611669804533215</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.09172577437755258</v>
+        <v>-0.06984071616999288</v>
       </c>
       <c r="AI4" s="4">
-        <v>-0.0411313393073931</v>
+        <v>-0.01796579262410047</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -743,106 +743,106 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="C5" s="2">
-        <v>716984</v>
+        <v>717173.5</v>
       </c>
       <c r="D5" s="2">
-        <v>729498</v>
+        <v>729576.5</v>
       </c>
       <c r="E5" s="2">
-        <v>740541.5</v>
+        <v>740797</v>
       </c>
       <c r="F5" s="2">
-        <v>750743.5</v>
+        <v>751600.5</v>
       </c>
       <c r="G5" s="2">
-        <v>759459</v>
+        <v>760460</v>
       </c>
       <c r="H5" s="2">
-        <v>763984.5</v>
+        <v>765105</v>
       </c>
       <c r="I5" s="3">
-        <v>4601556729.202767</v>
+        <v>4482057277.984471</v>
       </c>
       <c r="J5" s="3">
-        <v>4534813429.490251</v>
+        <v>4431648473.565589</v>
       </c>
       <c r="K5" s="3">
-        <v>4483894294.320472</v>
+        <v>4392221656.893941</v>
       </c>
       <c r="L5" s="3">
-        <v>4484957522.631243</v>
+        <v>4419575691.402431</v>
       </c>
       <c r="M5" s="3">
-        <v>4348827102.038325</v>
+        <v>4331722206.923286</v>
       </c>
       <c r="N5" s="3">
-        <v>4618118713.282299</v>
+        <v>4605910133.59017</v>
       </c>
       <c r="O5" s="4">
-        <v>0.7296614451743305</v>
+        <v>0.7076378351036925</v>
       </c>
       <c r="P5" s="4">
-        <v>0.7721071248105104</v>
+        <v>0.7491148204350025</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.7847397675593735</v>
+        <v>0.7486090035407182</v>
       </c>
       <c r="R5" s="4">
-        <v>0.8630621526023244</v>
+        <v>0.808295397066262</v>
       </c>
       <c r="S5" s="4">
-        <v>0.7286508337544214</v>
+        <v>0.6342943854324734</v>
       </c>
       <c r="T5" s="5">
-        <v>6417.935029516373</v>
+        <v>6249.613626248699</v>
       </c>
       <c r="U5" s="5">
-        <v>6216.347994772091</v>
+        <v>6074.275245386315</v>
       </c>
       <c r="V5" s="5">
-        <v>6054.885910270352</v>
+        <v>5929.048925540926</v>
       </c>
       <c r="W5" s="5">
-        <v>5974.021117240765</v>
+        <v>5880.219200762149</v>
       </c>
       <c r="X5" s="5">
-        <v>5726.217086160445</v>
+        <v>5696.186790788847</v>
       </c>
       <c r="Y5" s="5">
-        <v>6044.780637934799</v>
+        <v>6019.971289679416</v>
       </c>
       <c r="Z5" s="5">
-        <v>-201.5870347442824</v>
+        <v>-175.3383808623839</v>
       </c>
       <c r="AA5" s="5">
-        <v>-363.0491192460213</v>
+        <v>-320.5647007077732</v>
       </c>
       <c r="AB5" s="5">
-        <v>-443.9139122756078</v>
+        <v>-369.3944254865501</v>
       </c>
       <c r="AC5" s="5">
-        <v>-691.7179433559286</v>
+        <v>-553.4268354598516</v>
       </c>
       <c r="AD5" s="5">
-        <v>-373.1543915815737</v>
+        <v>-229.6423365692826</v>
       </c>
       <c r="AE5" s="4">
-        <v>-0.03140995254971801</v>
+        <v>-0.02805587534659004</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.05656790191492156</v>
+        <v>-0.05129352306859181</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.06916771675531574</v>
+        <v>-0.05910676204606868</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.107778894640517</v>
+        <v>-0.08855376804982473</v>
       </c>
       <c r="AI5" s="4">
-        <v>-0.05814243831784205</v>
+        <v>-0.03674504542245183</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -850,106 +850,106 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="C6" s="2">
-        <v>1073560</v>
+        <v>1070610</v>
       </c>
       <c r="D6" s="2">
-        <v>1089617</v>
+        <v>1086599.5</v>
       </c>
       <c r="E6" s="2">
-        <v>1100947.5</v>
+        <v>1097778.5</v>
       </c>
       <c r="F6" s="2">
-        <v>1109660.5</v>
+        <v>1106227</v>
       </c>
       <c r="G6" s="2">
-        <v>1113117</v>
+        <v>1109482.5</v>
       </c>
       <c r="H6" s="2">
-        <v>1107846</v>
+        <v>1104213.5</v>
       </c>
       <c r="I6" s="3">
-        <v>8516586070.393068</v>
+        <v>8257199023.225908</v>
       </c>
       <c r="J6" s="3">
-        <v>8316330422.884887</v>
+        <v>8094424149.004577</v>
       </c>
       <c r="K6" s="3">
-        <v>8232242030.916405</v>
+        <v>8032996465.566053</v>
       </c>
       <c r="L6" s="3">
-        <v>8243279283.709682</v>
+        <v>8083919363.78984</v>
       </c>
       <c r="M6" s="3">
-        <v>7916051056.868214</v>
+        <v>7854262022.159268</v>
       </c>
       <c r="N6" s="3">
-        <v>8179784283.25736</v>
+        <v>8114148216.069003</v>
       </c>
       <c r="O6" s="4">
-        <v>0.7867853795688847</v>
+        <v>0.7617260787992496</v>
       </c>
       <c r="P6" s="4">
-        <v>0.7910028116213683</v>
+        <v>0.7654784240150094</v>
       </c>
       <c r="Q6" s="4">
-        <v>0.7919400187441424</v>
+        <v>0.7368667917448405</v>
       </c>
       <c r="R6" s="4">
-        <v>0.8701968134957826</v>
+        <v>0.8137898686679175</v>
       </c>
       <c r="S6" s="4">
-        <v>0.7652296157450796</v>
+        <v>0.6801125703564728</v>
       </c>
       <c r="T6" s="5">
-        <v>7933.032220270006</v>
+        <v>7712.611523548172</v>
       </c>
       <c r="U6" s="5">
-        <v>7632.342761617051</v>
+        <v>7449.317019752519</v>
       </c>
       <c r="V6" s="5">
-        <v>7477.415617835006</v>
+        <v>7317.502087685315</v>
       </c>
       <c r="W6" s="5">
-        <v>7428.649829123126</v>
+        <v>7307.649663034657</v>
       </c>
       <c r="X6" s="5">
-        <v>7111.607366402825</v>
+        <v>7079.212175189125</v>
       </c>
       <c r="Y6" s="5">
-        <v>7383.503016897078</v>
+        <v>7348.35085431305</v>
       </c>
       <c r="Z6" s="5">
-        <v>-300.6894586529552</v>
+        <v>-263.2945037956533</v>
       </c>
       <c r="AA6" s="5">
-        <v>-455.6166024350005</v>
+        <v>-395.109435862857</v>
       </c>
       <c r="AB6" s="5">
-        <v>-504.3823911468808</v>
+        <v>-404.9618605135147</v>
       </c>
       <c r="AC6" s="5">
-        <v>-821.4248538671809</v>
+        <v>-633.3993483590466</v>
       </c>
       <c r="AD6" s="5">
-        <v>-549.5292033729284</v>
+        <v>-364.2606692351219</v>
       </c>
       <c r="AE6" s="4">
-        <v>-0.03790347124579319</v>
+        <v>-0.03413817783921325</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.05743284406066529</v>
+        <v>-0.05122900779541506</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.06358002553652986</v>
+        <v>-0.05250645119063546</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.1035448780566308</v>
+        <v>-0.08212514612270427</v>
       </c>
       <c r="AI6" s="4">
-        <v>-0.06927101619085885</v>
+        <v>-0.04722922555128828</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -957,106 +957,106 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C7" s="2">
-        <v>273372</v>
+        <v>272370.5</v>
       </c>
       <c r="D7" s="2">
-        <v>275992.5</v>
+        <v>275070.5</v>
       </c>
       <c r="E7" s="2">
-        <v>278984</v>
+        <v>278505</v>
       </c>
       <c r="F7" s="2">
-        <v>282038</v>
+        <v>281734</v>
       </c>
       <c r="G7" s="2">
-        <v>284729.5</v>
+        <v>284487</v>
       </c>
       <c r="H7" s="2">
-        <v>285477</v>
+        <v>285165</v>
       </c>
       <c r="I7" s="3">
-        <v>1877807061.309289</v>
+        <v>1824831688.664489</v>
       </c>
       <c r="J7" s="3">
-        <v>1807597788.046482</v>
+        <v>1764276087.283022</v>
       </c>
       <c r="K7" s="3">
-        <v>1809254597.862134</v>
+        <v>1770620727.29269</v>
       </c>
       <c r="L7" s="3">
-        <v>1807402613.073973</v>
+        <v>1782896434.982946</v>
       </c>
       <c r="M7" s="3">
-        <v>1772486575.046536</v>
+        <v>1764009121.508478</v>
       </c>
       <c r="N7" s="3">
-        <v>1851548743.358421</v>
+        <v>1846937153.45404</v>
       </c>
       <c r="O7" s="4">
-        <v>0.775175644028103</v>
+        <v>0.7561547479484173</v>
       </c>
       <c r="P7" s="4">
-        <v>0.7704918032786885</v>
+        <v>0.7373974208675264</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.7599531615925058</v>
+        <v>0.7233294255568582</v>
       </c>
       <c r="R7" s="4">
-        <v>0.8384074941451991</v>
+        <v>0.7584994138335287</v>
       </c>
       <c r="S7" s="4">
-        <v>0.7177985948477752</v>
+        <v>0.6248534583821805</v>
       </c>
       <c r="T7" s="5">
-        <v>6869.054114208073</v>
+        <v>6699.813998448763</v>
       </c>
       <c r="U7" s="5">
-        <v>6549.445322052165</v>
+        <v>6413.905116263002</v>
       </c>
       <c r="V7" s="5">
-        <v>6485.155413436374</v>
+        <v>6357.590446464837</v>
       </c>
       <c r="W7" s="5">
-        <v>6408.36558575076</v>
+        <v>6328.297028342145</v>
       </c>
       <c r="X7" s="5">
-        <v>6225.159581450241</v>
+        <v>6200.666889905262</v>
       </c>
       <c r="Y7" s="5">
-        <v>6485.807064521559</v>
+        <v>6476.731553500746</v>
       </c>
       <c r="Z7" s="5">
-        <v>-319.6087921559083</v>
+        <v>-285.9088821857604</v>
       </c>
       <c r="AA7" s="5">
-        <v>-383.8987007716987</v>
+        <v>-342.2235519839251</v>
       </c>
       <c r="AB7" s="5">
-        <v>-460.6885284573127</v>
+        <v>-371.5169701066179</v>
       </c>
       <c r="AC7" s="5">
-        <v>-643.8945327578322</v>
+        <v>-499.1471085435005</v>
       </c>
       <c r="AD7" s="5">
-        <v>-383.2470496865135</v>
+        <v>-223.0824449480169</v>
       </c>
       <c r="AE7" s="4">
-        <v>-0.04652879229686424</v>
+        <v>-0.04267415218571113</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.05588814622636851</v>
+        <v>-0.05107956012855908</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.06706724401900055</v>
+        <v>-0.05545183346771076</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.09373845686060167</v>
+        <v>-0.07450163671096988</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.05579327856710259</v>
+        <v>-0.03329681167263276</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1064,106 +1064,106 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>2783</v>
+        <v>2776</v>
       </c>
       <c r="C8" s="2">
-        <v>924441.5</v>
+        <v>923419</v>
       </c>
       <c r="D8" s="2">
-        <v>937713.5</v>
+        <v>936596</v>
       </c>
       <c r="E8" s="2">
-        <v>951554.5</v>
+        <v>950529</v>
       </c>
       <c r="F8" s="2">
-        <v>962734.5</v>
+        <v>961563.5</v>
       </c>
       <c r="G8" s="2">
-        <v>971862</v>
+        <v>970817</v>
       </c>
       <c r="H8" s="2">
-        <v>975555.5</v>
+        <v>974578</v>
       </c>
       <c r="I8" s="3">
-        <v>6123970636.918747</v>
+        <v>5945975031.766976</v>
       </c>
       <c r="J8" s="3">
-        <v>5948452391.498013</v>
+        <v>5800187722.585891</v>
       </c>
       <c r="K8" s="3">
-        <v>5949682357.04685</v>
+        <v>5812053675.206826</v>
       </c>
       <c r="L8" s="3">
-        <v>5953368423.058887</v>
+        <v>5847358703.380363</v>
       </c>
       <c r="M8" s="3">
-        <v>5835530661.851384</v>
+        <v>5802073570.361077</v>
       </c>
       <c r="N8" s="3">
-        <v>6078252572.539308</v>
+        <v>6043860857.372796</v>
       </c>
       <c r="O8" s="4">
-        <v>0.7919511318720804</v>
+        <v>0.7694524495677233</v>
       </c>
       <c r="P8" s="4">
-        <v>0.8203377650017967</v>
+        <v>0.7917867435158501</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.830398850161696</v>
+        <v>0.7795389048991355</v>
       </c>
       <c r="R8" s="4">
-        <v>0.8889687387711103</v>
+        <v>0.8270893371757925</v>
       </c>
       <c r="S8" s="4">
-        <v>0.7779374775422206</v>
+        <v>0.6822766570605188</v>
       </c>
       <c r="T8" s="5">
-        <v>6624.50856751752</v>
+        <v>6439.086732855807</v>
       </c>
       <c r="U8" s="5">
-        <v>6343.57124164045</v>
+        <v>6192.838451782723</v>
       </c>
       <c r="V8" s="5">
-        <v>6252.592318198117</v>
+        <v>6114.546400169617</v>
       </c>
       <c r="W8" s="5">
-        <v>6183.811240854969</v>
+        <v>6081.094699809594</v>
       </c>
       <c r="X8" s="5">
-        <v>6004.484856750633</v>
+        <v>5976.485342099569</v>
       </c>
       <c r="Y8" s="5">
-        <v>6230.555383614062</v>
+        <v>6201.515791832769</v>
       </c>
       <c r="Z8" s="5">
-        <v>-280.9373258770693</v>
+        <v>-246.2482810730844</v>
       </c>
       <c r="AA8" s="5">
-        <v>-371.9162493194026</v>
+        <v>-324.5403326861897</v>
       </c>
       <c r="AB8" s="5">
-        <v>-440.6973266625509</v>
+        <v>-357.9920330462128</v>
       </c>
       <c r="AC8" s="5">
-        <v>-620.0237107668863</v>
+        <v>-462.6013907562383</v>
       </c>
       <c r="AD8" s="5">
-        <v>-393.953183903458</v>
+        <v>-237.5709410230384</v>
       </c>
       <c r="AE8" s="4">
-        <v>-0.04240877991382053</v>
+        <v>-0.03824273399154399</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.05614246634732256</v>
+        <v>-0.05040160913351333</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.06652528593946683</v>
+        <v>-0.05559670926927229</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.09359542741134008</v>
+        <v>-0.07184270222604527</v>
       </c>
       <c r="AI8" s="4">
-        <v>-0.05946904285627463</v>
+        <v>-0.03689512983430077</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1171,106 +1171,106 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>2807</v>
+        <v>2793</v>
       </c>
       <c r="C9" s="2">
-        <v>1055686</v>
+        <v>1051001.5</v>
       </c>
       <c r="D9" s="2">
-        <v>1074282.5</v>
+        <v>1069566</v>
       </c>
       <c r="E9" s="2">
-        <v>1089391</v>
+        <v>1084777.5</v>
       </c>
       <c r="F9" s="2">
-        <v>1103332.5</v>
+        <v>1098739</v>
       </c>
       <c r="G9" s="2">
-        <v>1117029</v>
+        <v>1112399</v>
       </c>
       <c r="H9" s="2">
-        <v>1125041</v>
+        <v>1120545</v>
       </c>
       <c r="I9" s="3">
-        <v>6619575303.165094</v>
+        <v>6416761360.725402</v>
       </c>
       <c r="J9" s="3">
-        <v>6508149144.36603</v>
+        <v>6333687440.302233</v>
       </c>
       <c r="K9" s="3">
-        <v>6493539240.023055</v>
+        <v>6331597070.083981</v>
       </c>
       <c r="L9" s="3">
-        <v>6555010368.3716</v>
+        <v>6423697808.381286</v>
       </c>
       <c r="M9" s="3">
-        <v>6411748471.491995</v>
+        <v>6361847797.936788</v>
       </c>
       <c r="N9" s="3">
-        <v>6777302665.723335</v>
+        <v>6727556256.116527</v>
       </c>
       <c r="O9" s="4">
-        <v>0.7310295689348059</v>
+        <v>0.7049767275331185</v>
       </c>
       <c r="P9" s="4">
-        <v>0.7755610972568578</v>
+        <v>0.7525957751521661</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.7552547203420021</v>
+        <v>0.7096312209094164</v>
       </c>
       <c r="R9" s="4">
-        <v>0.8489490559315995</v>
+        <v>0.7669172932330827</v>
       </c>
       <c r="S9" s="4">
-        <v>0.6758104738154613</v>
+        <v>0.5721446473326173</v>
       </c>
       <c r="T9" s="5">
-        <v>6270.401713355197</v>
+        <v>6105.377928314471</v>
       </c>
       <c r="U9" s="5">
-        <v>6058.135680666891</v>
+        <v>5921.73595673594</v>
       </c>
       <c r="V9" s="5">
-        <v>5960.705788851804</v>
+        <v>5836.770277853275</v>
       </c>
       <c r="W9" s="5">
-        <v>5941.101497845482</v>
+        <v>5846.427412134534</v>
       </c>
       <c r="X9" s="5">
-        <v>5740.001800751811</v>
+        <v>5719.034085734334</v>
       </c>
       <c r="Y9" s="5">
-        <v>6024.04949306144</v>
+        <v>6003.825153042962</v>
       </c>
       <c r="Z9" s="5">
-        <v>-212.266032688306</v>
+        <v>-183.6419715785314</v>
       </c>
       <c r="AA9" s="5">
-        <v>-309.6959245033931</v>
+        <v>-268.6076504611965</v>
       </c>
       <c r="AB9" s="5">
-        <v>-329.3002155097147</v>
+        <v>-258.950516179937</v>
       </c>
       <c r="AC9" s="5">
-        <v>-530.3999126033859</v>
+        <v>-386.3438425801369</v>
       </c>
       <c r="AD9" s="5">
-        <v>-246.3522202937575</v>
+        <v>-101.5527752715088</v>
       </c>
       <c r="AE9" s="4">
-        <v>-0.03385206281699704</v>
+        <v>-0.03007872301022807</v>
       </c>
       <c r="AF9" s="4">
-        <v>-0.04939012501284856</v>
+        <v>-0.04399525362967194</v>
       </c>
       <c r="AG9" s="4">
-        <v>-0.05251660588321561</v>
+        <v>-0.04241351136987292</v>
       </c>
       <c r="AH9" s="4">
-        <v>-0.08458786802665264</v>
+        <v>-0.06327926741249179</v>
       </c>
       <c r="AI9" s="4">
-        <v>-0.03928810809187189</v>
+        <v>-0.01663333154210567</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1278,106 +1278,106 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>1714</v>
+        <v>1705</v>
       </c>
       <c r="C10" s="2">
-        <v>572486.5</v>
+        <v>570715</v>
       </c>
       <c r="D10" s="2">
-        <v>580466.5</v>
+        <v>578684</v>
       </c>
       <c r="E10" s="2">
-        <v>585908</v>
+        <v>584474</v>
       </c>
       <c r="F10" s="2">
-        <v>591245</v>
+        <v>590032</v>
       </c>
       <c r="G10" s="2">
-        <v>595407.5</v>
+        <v>594422.5</v>
       </c>
       <c r="H10" s="2">
-        <v>597089.5</v>
+        <v>595960.5</v>
       </c>
       <c r="I10" s="3">
-        <v>3605997003.047035</v>
+        <v>3498100260.107542</v>
       </c>
       <c r="J10" s="3">
-        <v>3539654501.834205</v>
+        <v>3448560284.64624</v>
       </c>
       <c r="K10" s="3">
-        <v>3498233699.931919</v>
+        <v>3415053964.789589</v>
       </c>
       <c r="L10" s="3">
-        <v>3513041843.97964</v>
+        <v>3446184562.535019</v>
       </c>
       <c r="M10" s="3">
-        <v>3413722037.158468</v>
+        <v>3392216093.150467</v>
       </c>
       <c r="N10" s="3">
-        <v>3629113385.095552</v>
+        <v>3610083184.312503</v>
       </c>
       <c r="O10" s="4">
-        <v>0.6960326721120187</v>
+        <v>0.6703812316715543</v>
       </c>
       <c r="P10" s="4">
-        <v>0.7234539089848308</v>
+        <v>0.6985337243401759</v>
       </c>
       <c r="Q10" s="4">
-        <v>0.6890315052508752</v>
+        <v>0.6475073313782991</v>
       </c>
       <c r="R10" s="4">
-        <v>0.8022170361726955</v>
+        <v>0.7343108504398826</v>
       </c>
       <c r="S10" s="4">
-        <v>0.6021003500583431</v>
+        <v>0.5137829912023461</v>
       </c>
       <c r="T10" s="5">
-        <v>6298.833252918688</v>
+        <v>6129.329455345562</v>
       </c>
       <c r="U10" s="5">
-        <v>6097.947946753525</v>
+        <v>5959.315074628364</v>
       </c>
       <c r="V10" s="5">
-        <v>5970.619448670985</v>
+        <v>5842.952748607448</v>
       </c>
       <c r="W10" s="5">
-        <v>5941.770068211384</v>
+        <v>5840.674001638926</v>
       </c>
       <c r="X10" s="5">
-        <v>5733.421290726885</v>
+        <v>5706.742414949749</v>
       </c>
       <c r="Y10" s="5">
-        <v>6078.005701147906</v>
+        <v>6057.588018522207</v>
       </c>
       <c r="Z10" s="5">
-        <v>-200.8853061651635</v>
+        <v>-170.014380717198</v>
       </c>
       <c r="AA10" s="5">
-        <v>-328.2138042477036</v>
+        <v>-286.3767067381141</v>
       </c>
       <c r="AB10" s="5">
-        <v>-357.0631847073046</v>
+        <v>-288.6554537066359</v>
       </c>
       <c r="AC10" s="5">
-        <v>-565.4119621918035</v>
+        <v>-422.5870403958124</v>
       </c>
       <c r="AD10" s="5">
-        <v>-220.8275517707825</v>
+        <v>-71.74143682335489</v>
       </c>
       <c r="AE10" s="4">
-        <v>-0.03189246295289361</v>
+        <v>-0.02773784342248464</v>
       </c>
       <c r="AF10" s="4">
-        <v>-0.05210707936991654</v>
+        <v>-0.0467223550022029</v>
       </c>
       <c r="AG10" s="4">
-        <v>-0.05668719433743585</v>
+        <v>-0.04709413253270167</v>
       </c>
       <c r="AH10" s="4">
-        <v>-0.08976455471809941</v>
+        <v>-0.0689450687019707</v>
       </c>
       <c r="AI10" s="4">
-        <v>-0.03505848510411946</v>
+        <v>-0.01170461423978231</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1385,106 +1385,106 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>1942</v>
+        <v>1934</v>
       </c>
       <c r="C11" s="2">
-        <v>722869</v>
+        <v>719760.5</v>
       </c>
       <c r="D11" s="2">
-        <v>735167</v>
+        <v>732088.5</v>
       </c>
       <c r="E11" s="2">
-        <v>744411.5</v>
+        <v>741269.5</v>
       </c>
       <c r="F11" s="2">
-        <v>754241.5</v>
+        <v>750985</v>
       </c>
       <c r="G11" s="2">
-        <v>760994.5</v>
+        <v>757732</v>
       </c>
       <c r="H11" s="2">
-        <v>763456</v>
+        <v>760098</v>
       </c>
       <c r="I11" s="3">
-        <v>4833508152.255744</v>
+        <v>4682694951.138002</v>
       </c>
       <c r="J11" s="3">
-        <v>4717541406.249828</v>
+        <v>4589605456.704233</v>
       </c>
       <c r="K11" s="3">
-        <v>4713072551.59404</v>
+        <v>4595983627.215144</v>
       </c>
       <c r="L11" s="3">
-        <v>4728541528.315195</v>
+        <v>4633012706.540638</v>
       </c>
       <c r="M11" s="3">
-        <v>4616831086.861845</v>
+        <v>4582151910.001717</v>
       </c>
       <c r="N11" s="3">
-        <v>4816766371.6357</v>
+        <v>4779846609.636596</v>
       </c>
       <c r="O11" s="4">
-        <v>0.7523171987641607</v>
+        <v>0.7285418821096173</v>
       </c>
       <c r="P11" s="4">
-        <v>0.7523171987641607</v>
+        <v>0.7254395036194415</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.752832131822863</v>
+        <v>0.7052740434332989</v>
       </c>
       <c r="R11" s="4">
-        <v>0.8274974253347065</v>
+        <v>0.7642192347466391</v>
       </c>
       <c r="S11" s="4">
-        <v>0.7070030895983522</v>
+        <v>0.6132368148914168</v>
       </c>
       <c r="T11" s="5">
-        <v>6686.561676120768</v>
+        <v>6505.907105402425</v>
       </c>
       <c r="U11" s="5">
-        <v>6416.965677526097</v>
+        <v>6269.194853770047</v>
       </c>
       <c r="V11" s="5">
-        <v>6331.273162214769</v>
+        <v>6200.152073186802</v>
       </c>
       <c r="W11" s="5">
-        <v>6269.267241745774</v>
+        <v>6169.247996352308</v>
       </c>
       <c r="X11" s="5">
-        <v>6066.838967774203</v>
+        <v>6047.193348046165</v>
       </c>
       <c r="Y11" s="5">
-        <v>6309.160412172673</v>
+        <v>6288.460974290942</v>
       </c>
       <c r="Z11" s="5">
-        <v>-269.5959985946711</v>
+        <v>-236.712251632378</v>
       </c>
       <c r="AA11" s="5">
-        <v>-355.288513905999</v>
+        <v>-305.755032215623</v>
       </c>
       <c r="AB11" s="5">
-        <v>-417.2944343749941</v>
+        <v>-336.659109050117</v>
       </c>
       <c r="AC11" s="5">
-        <v>-619.7227083465659</v>
+        <v>-458.7137573562604</v>
       </c>
       <c r="AD11" s="5">
-        <v>-377.4012639480952</v>
+        <v>-217.4461311114837</v>
       </c>
       <c r="AE11" s="4">
-        <v>-0.04031907752491981</v>
+        <v>-0.03638420404678311</v>
       </c>
       <c r="AF11" s="4">
-        <v>-0.05313470975296841</v>
+        <v>-0.04699652596664461</v>
       </c>
       <c r="AG11" s="4">
-        <v>-0.06240792421989427</v>
+        <v>-0.0517466824527143</v>
       </c>
       <c r="AH11" s="4">
-        <v>-0.09268182039802852</v>
+        <v>-0.07050727130354351</v>
       </c>
       <c r="AI11" s="4">
-        <v>-0.05644175321015599</v>
+        <v>-0.03342287671628741</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1492,106 +1492,106 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C12" s="2">
-        <v>627427</v>
+        <v>627555.5</v>
       </c>
       <c r="D12" s="2">
-        <v>636191</v>
+        <v>636110</v>
       </c>
       <c r="E12" s="2">
-        <v>642989</v>
+        <v>642907.5</v>
       </c>
       <c r="F12" s="2">
-        <v>650098</v>
+        <v>649947</v>
       </c>
       <c r="G12" s="2">
-        <v>653424</v>
+        <v>653409</v>
       </c>
       <c r="H12" s="2">
-        <v>653032</v>
+        <v>653065</v>
       </c>
       <c r="I12" s="3">
-        <v>4153900067.565142</v>
+        <v>4046908353.644801</v>
       </c>
       <c r="J12" s="3">
-        <v>3990823762.044956</v>
+        <v>3903316460.030529</v>
       </c>
       <c r="K12" s="3">
-        <v>3973805459.054868</v>
+        <v>3892804316.861728</v>
       </c>
       <c r="L12" s="3">
-        <v>3985582381.361931</v>
+        <v>3919752460.766327</v>
       </c>
       <c r="M12" s="3">
-        <v>3912755882.537416</v>
+        <v>3898059513.549867</v>
       </c>
       <c r="N12" s="3">
-        <v>4090129878.57513</v>
+        <v>4077891059.76714</v>
       </c>
       <c r="O12" s="4">
-        <v>0.784393063583815</v>
+        <v>0.7667824074074074</v>
       </c>
       <c r="P12" s="4">
-        <v>0.8138728323699422</v>
+        <v>0.7957175925925926</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.8028901734104046</v>
+        <v>0.7644675925925926</v>
       </c>
       <c r="R12" s="4">
-        <v>0.861271676300578</v>
+        <v>0.796875</v>
       </c>
       <c r="S12" s="4">
-        <v>0.715606936416185</v>
+        <v>0.6140046296296297</v>
       </c>
       <c r="T12" s="5">
-        <v>6620.53126111108</v>
+        <v>6448.685978602372</v>
       </c>
       <c r="U12" s="5">
-        <v>6272.996257483925</v>
+        <v>6136.228734071984</v>
       </c>
       <c r="V12" s="5">
-        <v>6180.207529296564</v>
+        <v>6054.999073524151</v>
       </c>
       <c r="W12" s="5">
-        <v>6130.740875009507</v>
+        <v>6030.880149868109</v>
       </c>
       <c r="X12" s="5">
-        <v>5988.081066103197</v>
+        <v>5965.726694229597</v>
       </c>
       <c r="Y12" s="5">
-        <v>6263.291658869902</v>
+        <v>6244.234585787234</v>
       </c>
       <c r="Z12" s="5">
-        <v>-347.5350036271557</v>
+        <v>-312.4572445303884</v>
       </c>
       <c r="AA12" s="5">
-        <v>-440.3237318145166</v>
+        <v>-393.6869050782216</v>
       </c>
       <c r="AB12" s="5">
-        <v>-489.7903861015729</v>
+        <v>-417.8058287342637</v>
       </c>
       <c r="AC12" s="5">
-        <v>-632.4501950078829</v>
+        <v>-482.9592843727751</v>
       </c>
       <c r="AD12" s="5">
-        <v>-357.2396022411785</v>
+        <v>-204.4513928151382</v>
       </c>
       <c r="AE12" s="4">
-        <v>-0.05249352203328028</v>
+        <v>-0.04845285466948845</v>
       </c>
       <c r="AF12" s="4">
-        <v>-0.06650882149004755</v>
+        <v>-0.0610491666650429</v>
       </c>
       <c r="AG12" s="4">
-        <v>-0.07398052615182038</v>
+        <v>-0.06478929662889477</v>
       </c>
       <c r="AH12" s="4">
-        <v>-0.09552861697412229</v>
+        <v>-0.07489266588190224</v>
       </c>
       <c r="AI12" s="4">
-        <v>-0.05395935585103262</v>
+        <v>-0.03170434930364663</v>
       </c>
     </row>
   </sheetData>

--- a/output/Region.xlsx
+++ b/output/Region.xlsx
@@ -657,85 +657,85 @@
         <v>574901</v>
       </c>
       <c r="I4" s="3">
-        <v>3403945650.980685</v>
+        <v>3411944290.748064</v>
       </c>
       <c r="J4" s="3">
-        <v>3339124992.38857</v>
+        <v>3345363634.868221</v>
       </c>
       <c r="K4" s="3">
-        <v>3313205988.753178</v>
+        <v>3318503399.207038</v>
       </c>
       <c r="L4" s="3">
-        <v>3334705803.215813</v>
+        <v>3336501063.008941</v>
       </c>
       <c r="M4" s="3">
-        <v>3315089128.545093</v>
+        <v>3315039799.618937</v>
       </c>
       <c r="N4" s="3">
-        <v>3512658901.238671</v>
+        <v>3512740323.367759</v>
       </c>
       <c r="O4" s="4">
-        <v>0.7261336515513126</v>
+        <v>0.727326968973747</v>
       </c>
       <c r="P4" s="4">
-        <v>0.7261336515513126</v>
+        <v>0.7285202863961814</v>
       </c>
       <c r="Q4" s="4">
-        <v>0.6963007159904535</v>
+        <v>0.704653937947494</v>
       </c>
       <c r="R4" s="4">
-        <v>0.7589498806682577</v>
+        <v>0.7673031026252983</v>
       </c>
       <c r="S4" s="4">
-        <v>0.5262529832935561</v>
+        <v>0.5363961813842482</v>
       </c>
       <c r="T4" s="5">
-        <v>6221.803622523298</v>
+        <v>6236.42370491668</v>
       </c>
       <c r="U4" s="5">
-        <v>6003.590498875506</v>
+        <v>6014.807286148247</v>
       </c>
       <c r="V4" s="5">
-        <v>5890.960859911558</v>
+        <v>5900.379784587087</v>
       </c>
       <c r="W4" s="5">
-        <v>5872.656547340805</v>
+        <v>5875.818128841674</v>
       </c>
       <c r="X4" s="5">
-        <v>5787.268401657215</v>
+        <v>5787.182286405236</v>
       </c>
       <c r="Y4" s="5">
-        <v>6110.023988893167</v>
+        <v>6110.165616980592</v>
       </c>
       <c r="Z4" s="5">
-        <v>-218.2131236477926</v>
+        <v>-221.6164187684335</v>
       </c>
       <c r="AA4" s="5">
-        <v>-330.84276261174</v>
+        <v>-336.0439203295937</v>
       </c>
       <c r="AB4" s="5">
-        <v>-349.1470751824936</v>
+        <v>-360.6055760750069</v>
       </c>
       <c r="AC4" s="5">
-        <v>-434.5352208660834</v>
+        <v>-449.241418511444</v>
       </c>
       <c r="AD4" s="5">
-        <v>-111.7796336301308</v>
+        <v>-126.2580879360885</v>
       </c>
       <c r="AE4" s="4">
-        <v>-0.03507232578955854</v>
+        <v>-0.03553581816349571</v>
       </c>
       <c r="AF4" s="4">
-        <v>-0.05317473560465158</v>
+        <v>-0.05388407462832634</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.05611669804533215</v>
+        <v>-0.05782249461188982</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.06984071616999288</v>
+        <v>-0.07203510213029152</v>
       </c>
       <c r="AI4" s="4">
-        <v>-0.01796579262410047</v>
+        <v>-0.02024527099346196</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -764,85 +764,85 @@
         <v>765105</v>
       </c>
       <c r="I5" s="3">
-        <v>4482057277.984471</v>
+        <v>4492589279.743372</v>
       </c>
       <c r="J5" s="3">
-        <v>4431648473.565589</v>
+        <v>4439928328.463231</v>
       </c>
       <c r="K5" s="3">
-        <v>4392221656.893941</v>
+        <v>4399244281.204008</v>
       </c>
       <c r="L5" s="3">
-        <v>4419575691.402431</v>
+        <v>4421954997.706984</v>
       </c>
       <c r="M5" s="3">
-        <v>4331722206.923286</v>
+        <v>4331657750.37428</v>
       </c>
       <c r="N5" s="3">
-        <v>4605910133.59017</v>
+        <v>4606016896.876914</v>
       </c>
       <c r="O5" s="4">
-        <v>0.7076378351036925</v>
+        <v>0.7111785533636823</v>
       </c>
       <c r="P5" s="4">
-        <v>0.7491148204350025</v>
+        <v>0.7516439049064239</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.7486090035407182</v>
+        <v>0.7546788062721295</v>
       </c>
       <c r="R5" s="4">
-        <v>0.808295397066262</v>
+        <v>0.813859382903389</v>
       </c>
       <c r="S5" s="4">
-        <v>0.6342943854324734</v>
+        <v>0.6469398077895802</v>
       </c>
       <c r="T5" s="5">
-        <v>6249.613626248699</v>
+        <v>6264.299056983244</v>
       </c>
       <c r="U5" s="5">
-        <v>6074.275245386315</v>
+        <v>6085.624096257529</v>
       </c>
       <c r="V5" s="5">
-        <v>5929.048925540926</v>
+        <v>5938.528748366973</v>
       </c>
       <c r="W5" s="5">
-        <v>5880.219200762149</v>
+        <v>5883.384853664924</v>
       </c>
       <c r="X5" s="5">
-        <v>5696.186790788847</v>
+        <v>5696.102030842227</v>
       </c>
       <c r="Y5" s="5">
-        <v>6019.971289679416</v>
+        <v>6020.110830378724</v>
       </c>
       <c r="Z5" s="5">
-        <v>-175.3383808623839</v>
+        <v>-178.6749607257143</v>
       </c>
       <c r="AA5" s="5">
-        <v>-320.5647007077732</v>
+        <v>-325.770308616271</v>
       </c>
       <c r="AB5" s="5">
-        <v>-369.3944254865501</v>
+        <v>-380.9142033183198</v>
       </c>
       <c r="AC5" s="5">
-        <v>-553.4268354598516</v>
+        <v>-568.197026141017</v>
       </c>
       <c r="AD5" s="5">
-        <v>-229.6423365692826</v>
+        <v>-244.1882266045195</v>
       </c>
       <c r="AE5" s="4">
-        <v>-0.02805587534659004</v>
+        <v>-0.02852273799516847</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.05129352306859181</v>
+        <v>-0.05200427145206499</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.05910676204606868</v>
+        <v>-0.06080715493518607</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.08855376804982473</v>
+        <v>-0.09070400709998172</v>
       </c>
       <c r="AI5" s="4">
-        <v>-0.03674504542245183</v>
+        <v>-0.03898093376182388</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -871,85 +871,85 @@
         <v>1104213.5</v>
       </c>
       <c r="I6" s="3">
-        <v>8257199023.225908</v>
+        <v>8276601906.599</v>
       </c>
       <c r="J6" s="3">
-        <v>8094424149.004577</v>
+        <v>8109547338.001504</v>
       </c>
       <c r="K6" s="3">
-        <v>8032996465.566053</v>
+        <v>8045840242.740464</v>
       </c>
       <c r="L6" s="3">
-        <v>8083919363.78984</v>
+        <v>8088271392.502736</v>
       </c>
       <c r="M6" s="3">
-        <v>7854262022.159268</v>
+        <v>7854145149.792853</v>
       </c>
       <c r="N6" s="3">
-        <v>8114148216.069003</v>
+        <v>8114336299.011919</v>
       </c>
       <c r="O6" s="4">
-        <v>0.7617260787992496</v>
+        <v>0.7645403377110694</v>
       </c>
       <c r="P6" s="4">
-        <v>0.7654784240150094</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="Q6" s="4">
-        <v>0.7368667917448405</v>
+        <v>0.74812382739212</v>
       </c>
       <c r="R6" s="4">
-        <v>0.8137898686679175</v>
+        <v>0.8208255159474672</v>
       </c>
       <c r="S6" s="4">
-        <v>0.6801125703564728</v>
+        <v>0.6880863039399625</v>
       </c>
       <c r="T6" s="5">
-        <v>7712.611523548172</v>
+        <v>7730.73472749087</v>
       </c>
       <c r="U6" s="5">
-        <v>7449.317019752519</v>
+        <v>7463.234925104884</v>
       </c>
       <c r="V6" s="5">
-        <v>7317.502087685315</v>
+        <v>7329.201877009309</v>
       </c>
       <c r="W6" s="5">
-        <v>7307.649663034657</v>
+        <v>7311.583782083367</v>
       </c>
       <c r="X6" s="5">
-        <v>7079.212175189125</v>
+        <v>7079.106835657934</v>
       </c>
       <c r="Y6" s="5">
-        <v>7348.35085431305</v>
+        <v>7348.521186357456</v>
       </c>
       <c r="Z6" s="5">
-        <v>-263.2945037956533</v>
+        <v>-267.4998023859862</v>
       </c>
       <c r="AA6" s="5">
-        <v>-395.109435862857</v>
+        <v>-401.5328504815607</v>
       </c>
       <c r="AB6" s="5">
-        <v>-404.9618605135147</v>
+        <v>-419.1509454075031</v>
       </c>
       <c r="AC6" s="5">
-        <v>-633.3993483590466</v>
+        <v>-651.6278918329363</v>
       </c>
       <c r="AD6" s="5">
-        <v>-364.2606692351219</v>
+        <v>-382.2135411334139</v>
       </c>
       <c r="AE6" s="4">
-        <v>-0.03413817783921325</v>
+        <v>-0.03460211892082443</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.05122900779541506</v>
+        <v>-0.05193980451220115</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.05250645119063546</v>
+        <v>-0.05421877223609572</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.08212514612270427</v>
+        <v>-0.08429055126102258</v>
       </c>
       <c r="AI6" s="4">
-        <v>-0.04722922555128828</v>
+        <v>-0.04944077821920911</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -978,85 +978,85 @@
         <v>285165</v>
       </c>
       <c r="I7" s="3">
-        <v>1824831688.664489</v>
+        <v>1829119704.047315</v>
       </c>
       <c r="J7" s="3">
-        <v>1764276087.283022</v>
+        <v>1767572366.328891</v>
       </c>
       <c r="K7" s="3">
-        <v>1770620727.29269</v>
+        <v>1773451732.905504</v>
       </c>
       <c r="L7" s="3">
-        <v>1782896434.982946</v>
+        <v>1783856268.46569</v>
       </c>
       <c r="M7" s="3">
-        <v>1764009121.508478</v>
+        <v>1763982872.839947</v>
       </c>
       <c r="N7" s="3">
-        <v>1846937153.45404</v>
+        <v>1846979964.771495</v>
       </c>
       <c r="O7" s="4">
         <v>0.7561547479484173</v>
       </c>
       <c r="P7" s="4">
-        <v>0.7373974208675264</v>
+        <v>0.7456037514654161</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.7233294255568582</v>
+        <v>0.7268464243845252</v>
       </c>
       <c r="R7" s="4">
-        <v>0.7584994138335287</v>
+        <v>0.7690504103165299</v>
       </c>
       <c r="S7" s="4">
-        <v>0.6248534583821805</v>
+        <v>0.6400937866354045</v>
       </c>
       <c r="T7" s="5">
-        <v>6699.813998448763</v>
+        <v>6715.557316402897</v>
       </c>
       <c r="U7" s="5">
-        <v>6413.905116263002</v>
+        <v>6425.888513413438</v>
       </c>
       <c r="V7" s="5">
-        <v>6357.590446464837</v>
+        <v>6367.755454679464</v>
       </c>
       <c r="W7" s="5">
-        <v>6328.297028342145</v>
+        <v>6331.703906754919</v>
       </c>
       <c r="X7" s="5">
-        <v>6200.666889905262</v>
+        <v>6200.574623233917</v>
       </c>
       <c r="Y7" s="5">
-        <v>6476.731553500746</v>
+        <v>6476.881681733364</v>
       </c>
       <c r="Z7" s="5">
-        <v>-285.9088821857604</v>
+        <v>-289.6688029894594</v>
       </c>
       <c r="AA7" s="5">
-        <v>-342.2235519839251</v>
+        <v>-347.8018617234329</v>
       </c>
       <c r="AB7" s="5">
-        <v>-371.5169701066179</v>
+        <v>-383.853409647978</v>
       </c>
       <c r="AC7" s="5">
-        <v>-499.1471085435005</v>
+        <v>-514.9826931689804</v>
       </c>
       <c r="AD7" s="5">
-        <v>-223.0824449480169</v>
+        <v>-238.6756346695338</v>
       </c>
       <c r="AE7" s="4">
-        <v>-0.04267415218571113</v>
+        <v>-0.04313399310611754</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.05107956012855908</v>
+        <v>-0.05179046880798999</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.05545183346771076</v>
+        <v>-0.0571588315850432</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.07450163671096988</v>
+        <v>-0.07668502685713419</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.03329681167263276</v>
+        <v>-0.03554070398395126</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1067,103 +1067,103 @@
         <v>2776</v>
       </c>
       <c r="C8" s="2">
-        <v>923419</v>
+        <v>923251</v>
       </c>
       <c r="D8" s="2">
-        <v>936596</v>
+        <v>936427</v>
       </c>
       <c r="E8" s="2">
-        <v>950529</v>
+        <v>950363</v>
       </c>
       <c r="F8" s="2">
-        <v>961563.5</v>
+        <v>961402.5</v>
       </c>
       <c r="G8" s="2">
-        <v>970817</v>
+        <v>970645</v>
       </c>
       <c r="H8" s="2">
-        <v>974578</v>
+        <v>974400</v>
       </c>
       <c r="I8" s="3">
-        <v>5945975031.766976</v>
+        <v>5959152943.871764</v>
       </c>
       <c r="J8" s="3">
-        <v>5800187722.585891</v>
+        <v>5810259650.273874</v>
       </c>
       <c r="K8" s="3">
-        <v>5812053675.206826</v>
+        <v>5820587323.240251</v>
       </c>
       <c r="L8" s="3">
-        <v>5847358703.380363</v>
+        <v>5850284223.438849</v>
       </c>
       <c r="M8" s="3">
-        <v>5802073570.361077</v>
+        <v>5801456586.886761</v>
       </c>
       <c r="N8" s="3">
-        <v>6043860857.372796</v>
+        <v>6043277356.649564</v>
       </c>
       <c r="O8" s="4">
-        <v>0.7694524495677233</v>
+        <v>0.770893371757925</v>
       </c>
       <c r="P8" s="4">
-        <v>0.7917867435158501</v>
+        <v>0.7921469740634006</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.7795389048991355</v>
+        <v>0.7881844380403458</v>
       </c>
       <c r="R8" s="4">
-        <v>0.8270893371757925</v>
+        <v>0.8332132564841499</v>
       </c>
       <c r="S8" s="4">
-        <v>0.6822766570605188</v>
+        <v>0.6884005763688761</v>
       </c>
       <c r="T8" s="5">
-        <v>6439.086732855807</v>
+        <v>6454.531805404776</v>
       </c>
       <c r="U8" s="5">
-        <v>6192.838451782723</v>
+        <v>6204.711793096391</v>
       </c>
       <c r="V8" s="5">
-        <v>6114.546400169617</v>
+        <v>6124.59378494349</v>
       </c>
       <c r="W8" s="5">
-        <v>6081.094699809594</v>
+        <v>6085.156033439532</v>
       </c>
       <c r="X8" s="5">
-        <v>5976.485342099569</v>
+        <v>5976.908743038661</v>
       </c>
       <c r="Y8" s="5">
-        <v>6201.515791832769</v>
+        <v>6202.049832357927</v>
       </c>
       <c r="Z8" s="5">
-        <v>-246.2482810730844</v>
+        <v>-249.8200123083843</v>
       </c>
       <c r="AA8" s="5">
-        <v>-324.5403326861897</v>
+        <v>-329.9380204612853</v>
       </c>
       <c r="AB8" s="5">
-        <v>-357.9920330462128</v>
+        <v>-369.375771965244</v>
       </c>
       <c r="AC8" s="5">
-        <v>-462.6013907562383</v>
+        <v>-477.6230623661149</v>
       </c>
       <c r="AD8" s="5">
-        <v>-237.5709410230384</v>
+        <v>-252.4819730468489</v>
       </c>
       <c r="AE8" s="4">
-        <v>-0.03824273399154399</v>
+        <v>-0.03870459079606592</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.05040160913351333</v>
+        <v>-0.05111726619504886</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.05559670926927229</v>
+        <v>-0.05722735329244844</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.07184270222604527</v>
+        <v>-0.07399809572030802</v>
       </c>
       <c r="AI8" s="4">
-        <v>-0.03689512983430077</v>
+        <v>-0.03911700812062469</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1171,106 +1171,106 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="C9" s="2">
-        <v>1051001.5</v>
+        <v>1051493.5</v>
       </c>
       <c r="D9" s="2">
-        <v>1069566</v>
+        <v>1070056</v>
       </c>
       <c r="E9" s="2">
-        <v>1084777.5</v>
+        <v>1085270.5</v>
       </c>
       <c r="F9" s="2">
-        <v>1098739</v>
+        <v>1099211.5</v>
       </c>
       <c r="G9" s="2">
-        <v>1112399</v>
+        <v>1112866</v>
       </c>
       <c r="H9" s="2">
-        <v>1120545</v>
+        <v>1121019</v>
       </c>
       <c r="I9" s="3">
-        <v>6416761360.725402</v>
+        <v>6433931311.054861</v>
       </c>
       <c r="J9" s="3">
-        <v>6333687440.302233</v>
+        <v>6348008285.547463</v>
       </c>
       <c r="K9" s="3">
-        <v>6331597070.083981</v>
+        <v>6344550385.639488</v>
       </c>
       <c r="L9" s="3">
-        <v>6423697808.381286</v>
+        <v>6430165491.548478</v>
       </c>
       <c r="M9" s="3">
-        <v>6361847797.936788</v>
+        <v>6363876968.513569</v>
       </c>
       <c r="N9" s="3">
-        <v>6727556256.116527</v>
+        <v>6730323471.86068</v>
       </c>
       <c r="O9" s="4">
-        <v>0.7049767275331185</v>
+        <v>0.7072297780959198</v>
       </c>
       <c r="P9" s="4">
-        <v>0.7525957751521661</v>
+        <v>0.7559055118110236</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.7096312209094164</v>
+        <v>0.7168933428775949</v>
       </c>
       <c r="R9" s="4">
-        <v>0.7669172932330827</v>
+        <v>0.7759484609878311</v>
       </c>
       <c r="S9" s="4">
-        <v>0.5721446473326173</v>
+        <v>0.5801717967072297</v>
       </c>
       <c r="T9" s="5">
-        <v>6105.377928314471</v>
+        <v>6118.850293468158</v>
       </c>
       <c r="U9" s="5">
-        <v>5921.73595673594</v>
+        <v>5932.40754273371</v>
       </c>
       <c r="V9" s="5">
-        <v>5836.770277853275</v>
+        <v>5846.054403615954</v>
       </c>
       <c r="W9" s="5">
-        <v>5846.427412134534</v>
+        <v>5849.798234050934</v>
       </c>
       <c r="X9" s="5">
-        <v>5719.034085734334</v>
+        <v>5718.457539823814</v>
       </c>
       <c r="Y9" s="5">
-        <v>6003.825153042962</v>
+        <v>6003.755040602059</v>
       </c>
       <c r="Z9" s="5">
-        <v>-183.6419715785314</v>
+        <v>-186.4427507344481</v>
       </c>
       <c r="AA9" s="5">
-        <v>-268.6076504611965</v>
+        <v>-272.7958898522047</v>
       </c>
       <c r="AB9" s="5">
-        <v>-258.950516179937</v>
+        <v>-269.052059417224</v>
       </c>
       <c r="AC9" s="5">
-        <v>-386.3438425801369</v>
+        <v>-400.3927536443443</v>
       </c>
       <c r="AD9" s="5">
-        <v>-101.5527752715088</v>
+        <v>-115.0952528660991</v>
       </c>
       <c r="AE9" s="4">
-        <v>-0.03007872301022807</v>
+        <v>-0.03047022590722226</v>
       </c>
       <c r="AF9" s="4">
-        <v>-0.04399525362967194</v>
+        <v>-0.04458286716761362</v>
       </c>
       <c r="AG9" s="4">
-        <v>-0.04241351136987292</v>
+        <v>-0.04397101522559488</v>
       </c>
       <c r="AH9" s="4">
-        <v>-0.06327926741249179</v>
+        <v>-0.06543594538859066</v>
       </c>
       <c r="AI9" s="4">
-        <v>-0.01663333154210567</v>
+        <v>-0.01880994751399012</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1278,106 +1278,106 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C10" s="2">
-        <v>570715</v>
+        <v>570762</v>
       </c>
       <c r="D10" s="2">
-        <v>578684</v>
+        <v>578735</v>
       </c>
       <c r="E10" s="2">
-        <v>584474</v>
+        <v>584523</v>
       </c>
       <c r="F10" s="2">
-        <v>590032</v>
+        <v>590081</v>
       </c>
       <c r="G10" s="2">
-        <v>594422.5</v>
+        <v>594464.5</v>
       </c>
       <c r="H10" s="2">
-        <v>595960.5</v>
+        <v>596000.5</v>
       </c>
       <c r="I10" s="3">
-        <v>3498100260.107542</v>
+        <v>3506623273.280505</v>
       </c>
       <c r="J10" s="3">
-        <v>3448560284.64624</v>
+        <v>3455335077.422535</v>
       </c>
       <c r="K10" s="3">
-        <v>3415053964.789589</v>
+        <v>3420868913.955131</v>
       </c>
       <c r="L10" s="3">
-        <v>3446184562.535019</v>
+        <v>3448441759.298356</v>
       </c>
       <c r="M10" s="3">
-        <v>3392216093.150467</v>
+        <v>3392540506.063832</v>
       </c>
       <c r="N10" s="3">
-        <v>3610083184.312503</v>
+        <v>3610553223.380827</v>
       </c>
       <c r="O10" s="4">
-        <v>0.6703812316715543</v>
+        <v>0.6729191090269636</v>
       </c>
       <c r="P10" s="4">
-        <v>0.6985337243401759</v>
+        <v>0.7004689331770223</v>
       </c>
       <c r="Q10" s="4">
-        <v>0.6475073313782991</v>
+        <v>0.6547479484173505</v>
       </c>
       <c r="R10" s="4">
-        <v>0.7343108504398826</v>
+        <v>0.7391559202813599</v>
       </c>
       <c r="S10" s="4">
-        <v>0.5137829912023461</v>
+        <v>0.5228604923798359</v>
       </c>
       <c r="T10" s="5">
-        <v>6129.329455345562</v>
+        <v>6143.757421272799</v>
       </c>
       <c r="U10" s="5">
-        <v>5959.315074628364</v>
+        <v>5970.496129355466</v>
       </c>
       <c r="V10" s="5">
-        <v>5842.952748607448</v>
+        <v>5852.411135156583</v>
       </c>
       <c r="W10" s="5">
-        <v>5840.674001638926</v>
+        <v>5844.014227365999</v>
       </c>
       <c r="X10" s="5">
-        <v>5706.742414949749</v>
+        <v>5706.884946138638</v>
       </c>
       <c r="Y10" s="5">
-        <v>6057.588018522207</v>
+        <v>6057.970124825109</v>
       </c>
       <c r="Z10" s="5">
-        <v>-170.014380717198</v>
+        <v>-173.2612919173325</v>
       </c>
       <c r="AA10" s="5">
-        <v>-286.3767067381141</v>
+        <v>-291.3462861162161</v>
       </c>
       <c r="AB10" s="5">
-        <v>-288.6554537066359</v>
+        <v>-299.7431939068001</v>
       </c>
       <c r="AC10" s="5">
-        <v>-422.5870403958124</v>
+        <v>-436.8724751341606</v>
       </c>
       <c r="AD10" s="5">
-        <v>-71.74143682335489</v>
+        <v>-85.78729644768919</v>
       </c>
       <c r="AE10" s="4">
-        <v>-0.02773784342248464</v>
+        <v>-0.02820119351024741</v>
       </c>
       <c r="AF10" s="4">
-        <v>-0.0467223550022029</v>
+        <v>-0.0474215152290075</v>
       </c>
       <c r="AG10" s="4">
-        <v>-0.04709413253270167</v>
+        <v>-0.04878825340156456</v>
       </c>
       <c r="AH10" s="4">
-        <v>-0.0689450687019707</v>
+        <v>-0.07110835359831869</v>
       </c>
       <c r="AI10" s="4">
-        <v>-0.01170461423978231</v>
+        <v>-0.01396332741762396</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1406,85 +1406,85 @@
         <v>760098</v>
       </c>
       <c r="I11" s="3">
-        <v>4682694951.138002</v>
+        <v>4693698414.146843</v>
       </c>
       <c r="J11" s="3">
-        <v>4589605456.704233</v>
+        <v>4598180429.977851</v>
       </c>
       <c r="K11" s="3">
-        <v>4595983627.215144</v>
+        <v>4603332041.951568</v>
       </c>
       <c r="L11" s="3">
-        <v>4633012706.540638</v>
+        <v>4635506918.00151</v>
       </c>
       <c r="M11" s="3">
-        <v>4582151910.001717</v>
+        <v>4582083727.028511</v>
       </c>
       <c r="N11" s="3">
-        <v>4779846609.636596</v>
+        <v>4779957404.706257</v>
       </c>
       <c r="O11" s="4">
+        <v>0.7306101344364012</v>
+      </c>
+      <c r="P11" s="4">
         <v>0.7285418821096173</v>
       </c>
-      <c r="P11" s="4">
-        <v>0.7254395036194415</v>
-      </c>
       <c r="Q11" s="4">
-        <v>0.7052740434332989</v>
+        <v>0.7119958634953464</v>
       </c>
       <c r="R11" s="4">
-        <v>0.7642192347466391</v>
+        <v>0.7699069286452948</v>
       </c>
       <c r="S11" s="4">
-        <v>0.6132368148914168</v>
+        <v>0.6240951396070321</v>
       </c>
       <c r="T11" s="5">
-        <v>6505.907105402425</v>
+        <v>6521.194778189193</v>
       </c>
       <c r="U11" s="5">
-        <v>6269.194853770047</v>
+        <v>6280.907882008597</v>
       </c>
       <c r="V11" s="5">
-        <v>6200.152073186802</v>
+        <v>6210.065356731347</v>
       </c>
       <c r="W11" s="5">
-        <v>6169.247996352308</v>
+        <v>6172.569249720713</v>
       </c>
       <c r="X11" s="5">
-        <v>6047.193348046165</v>
+        <v>6047.103365079621</v>
       </c>
       <c r="Y11" s="5">
-        <v>6288.460974290942</v>
+        <v>6288.606738481429</v>
       </c>
       <c r="Z11" s="5">
-        <v>-236.712251632378</v>
+        <v>-240.2868961805962</v>
       </c>
       <c r="AA11" s="5">
-        <v>-305.755032215623</v>
+        <v>-311.1294214578456</v>
       </c>
       <c r="AB11" s="5">
-        <v>-336.659109050117</v>
+        <v>-348.6255284684803</v>
       </c>
       <c r="AC11" s="5">
-        <v>-458.7137573562604</v>
+        <v>-474.0914131095724</v>
       </c>
       <c r="AD11" s="5">
-        <v>-217.4461311114837</v>
+        <v>-232.5880397077644</v>
       </c>
       <c r="AE11" s="4">
-        <v>-0.03638420404678311</v>
+        <v>-0.03684706627445944</v>
       </c>
       <c r="AF11" s="4">
-        <v>-0.04699652596664461</v>
+        <v>-0.04771049355839674</v>
       </c>
       <c r="AG11" s="4">
-        <v>-0.0517466824527143</v>
+        <v>-0.05346037656082503</v>
       </c>
       <c r="AH11" s="4">
-        <v>-0.07050727130354351</v>
+        <v>-0.07270008475980816</v>
       </c>
       <c r="AI11" s="4">
-        <v>-0.03342287671628741</v>
+        <v>-0.03566647640792442</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1492,106 +1492,106 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C12" s="2">
-        <v>627555.5</v>
+        <v>626429.5</v>
       </c>
       <c r="D12" s="2">
-        <v>636110</v>
+        <v>635047</v>
       </c>
       <c r="E12" s="2">
-        <v>642907.5</v>
+        <v>641895.5</v>
       </c>
       <c r="F12" s="2">
-        <v>649947</v>
+        <v>648990</v>
       </c>
       <c r="G12" s="2">
-        <v>653409</v>
+        <v>652427</v>
       </c>
       <c r="H12" s="2">
-        <v>653065</v>
+        <v>652097</v>
       </c>
       <c r="I12" s="3">
-        <v>4046908353.644801</v>
+        <v>4047638095.340007</v>
       </c>
       <c r="J12" s="3">
-        <v>3903316460.030529</v>
+        <v>3902603647.954151</v>
       </c>
       <c r="K12" s="3">
-        <v>3892804316.861728</v>
+        <v>3891547801.611442</v>
       </c>
       <c r="L12" s="3">
-        <v>3919752460.766327</v>
+        <v>3918131835.529537</v>
       </c>
       <c r="M12" s="3">
-        <v>3898059513.549867</v>
+        <v>3891307093.331212</v>
       </c>
       <c r="N12" s="3">
-        <v>4077891059.76714</v>
+        <v>4070846790.876235</v>
       </c>
       <c r="O12" s="4">
-        <v>0.7667824074074074</v>
+        <v>0.7672264041690793</v>
       </c>
       <c r="P12" s="4">
-        <v>0.7957175925925926</v>
+        <v>0.7990735379270412</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.7644675925925926</v>
+        <v>0.7730167921250723</v>
       </c>
       <c r="R12" s="4">
-        <v>0.796875</v>
+        <v>0.8048639258830341</v>
       </c>
       <c r="S12" s="4">
-        <v>0.6140046296296297</v>
+        <v>0.6282570932252461</v>
       </c>
       <c r="T12" s="5">
-        <v>6448.685978602372</v>
+        <v>6461.442341620258</v>
       </c>
       <c r="U12" s="5">
-        <v>6136.228734071984</v>
+        <v>6145.37766173866</v>
       </c>
       <c r="V12" s="5">
-        <v>6054.999073524151</v>
+        <v>6062.587760175046</v>
       </c>
       <c r="W12" s="5">
-        <v>6030.880149868109</v>
+        <v>6037.276129878021</v>
       </c>
       <c r="X12" s="5">
-        <v>5965.726694229597</v>
+        <v>5964.356308569712</v>
       </c>
       <c r="Y12" s="5">
-        <v>6244.234585787234</v>
+        <v>6242.7013019171</v>
       </c>
       <c r="Z12" s="5">
-        <v>-312.4572445303884</v>
+        <v>-316.0646798815978</v>
       </c>
       <c r="AA12" s="5">
-        <v>-393.6869050782216</v>
+        <v>-398.8545814452118</v>
       </c>
       <c r="AB12" s="5">
-        <v>-417.8058287342637</v>
+        <v>-424.1662117422366</v>
       </c>
       <c r="AC12" s="5">
-        <v>-482.9592843727751</v>
+        <v>-497.0860330505457</v>
       </c>
       <c r="AD12" s="5">
-        <v>-204.4513928151382</v>
+        <v>-218.7410397031581</v>
       </c>
       <c r="AE12" s="4">
-        <v>-0.04845285466948845</v>
+        <v>-0.0489154995388138</v>
       </c>
       <c r="AF12" s="4">
-        <v>-0.0610491666650429</v>
+        <v>-0.06172841300092691</v>
       </c>
       <c r="AG12" s="4">
-        <v>-0.06478929662889477</v>
+        <v>-0.06564574739142115</v>
       </c>
       <c r="AH12" s="4">
-        <v>-0.07489266588190224</v>
+        <v>-0.07693112570991345</v>
       </c>
       <c r="AI12" s="4">
-        <v>-0.03170434930364663</v>
+        <v>-0.03385328354540529</v>
       </c>
     </row>
   </sheetData>

--- a/output/Region.xlsx
+++ b/output/Region.xlsx
@@ -636,106 +636,106 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>1676</v>
+        <v>1690</v>
       </c>
       <c r="C4" s="2">
-        <v>547099.5</v>
+        <v>550689</v>
       </c>
       <c r="D4" s="2">
-        <v>556188</v>
+        <v>559835.5</v>
       </c>
       <c r="E4" s="2">
-        <v>562422</v>
+        <v>565896.5</v>
       </c>
       <c r="F4" s="2">
-        <v>567836</v>
+        <v>571359.5</v>
       </c>
       <c r="G4" s="2">
-        <v>572824.5</v>
+        <v>576389</v>
       </c>
       <c r="H4" s="2">
-        <v>574901</v>
+        <v>578438.5</v>
       </c>
       <c r="I4" s="3">
-        <v>3411944290.748064</v>
+        <v>3537455664.72793</v>
       </c>
       <c r="J4" s="3">
-        <v>3345363634.868221</v>
+        <v>3478050020.20835</v>
       </c>
       <c r="K4" s="3">
-        <v>3318503399.207038</v>
+        <v>3436931906.959241</v>
       </c>
       <c r="L4" s="3">
-        <v>3336501063.008941</v>
+        <v>3454012118.781127</v>
       </c>
       <c r="M4" s="3">
-        <v>3315039799.618937</v>
+        <v>3437725183.15047</v>
       </c>
       <c r="N4" s="3">
-        <v>3512740323.367759</v>
+        <v>3675378556.155319</v>
       </c>
       <c r="O4" s="4">
-        <v>0.727326968973747</v>
+        <v>0.7082840236686391</v>
       </c>
       <c r="P4" s="4">
-        <v>0.7285202863961814</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="Q4" s="4">
-        <v>0.704653937947494</v>
+        <v>0.7147928994082841</v>
       </c>
       <c r="R4" s="4">
-        <v>0.7673031026252983</v>
+        <v>0.7727810650887574</v>
       </c>
       <c r="S4" s="4">
-        <v>0.5363961813842482</v>
+        <v>0.4976331360946746</v>
       </c>
       <c r="T4" s="5">
-        <v>6236.42370491668</v>
+        <v>6423.69044002682</v>
       </c>
       <c r="U4" s="5">
-        <v>6014.807286148247</v>
+        <v>6212.628567156513</v>
       </c>
       <c r="V4" s="5">
-        <v>5900.379784587087</v>
+        <v>6073.428457251885</v>
       </c>
       <c r="W4" s="5">
-        <v>5875.818128841674</v>
+        <v>6045.251927693732</v>
       </c>
       <c r="X4" s="5">
-        <v>5787.182286405236</v>
+        <v>5964.244951153595</v>
       </c>
       <c r="Y4" s="5">
-        <v>6110.165616980592</v>
+        <v>6353.96598973844</v>
       </c>
       <c r="Z4" s="5">
-        <v>-221.6164187684335</v>
+        <v>-211.0618728703075</v>
       </c>
       <c r="AA4" s="5">
-        <v>-336.0439203295937</v>
+        <v>-350.2619827749359</v>
       </c>
       <c r="AB4" s="5">
-        <v>-360.6055760750069</v>
+        <v>-378.4385123330885</v>
       </c>
       <c r="AC4" s="5">
-        <v>-449.241418511444</v>
+        <v>-459.4454888732253</v>
       </c>
       <c r="AD4" s="5">
-        <v>-126.2580879360885</v>
+        <v>-69.72445028838047</v>
       </c>
       <c r="AE4" s="4">
-        <v>-0.03553581816349571</v>
+        <v>-0.03285679390077001</v>
       </c>
       <c r="AF4" s="4">
-        <v>-0.05388407462832634</v>
+        <v>-0.05452659745127342</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.05782249461188982</v>
+        <v>-0.0589129435588911</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.07203510213029152</v>
+        <v>-0.0715236036298329</v>
       </c>
       <c r="AI4" s="4">
-        <v>-0.02024527099346196</v>
+        <v>-0.01085426686409396</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -743,106 +743,106 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>1977</v>
+        <v>2000</v>
       </c>
       <c r="C5" s="2">
-        <v>717173.5</v>
+        <v>724644.5</v>
       </c>
       <c r="D5" s="2">
-        <v>729576.5</v>
+        <v>737071.5</v>
       </c>
       <c r="E5" s="2">
-        <v>740797</v>
+        <v>747932.5</v>
       </c>
       <c r="F5" s="2">
-        <v>751600.5</v>
+        <v>758786</v>
       </c>
       <c r="G5" s="2">
-        <v>760460</v>
+        <v>767760.5</v>
       </c>
       <c r="H5" s="2">
-        <v>765105</v>
+        <v>772445</v>
       </c>
       <c r="I5" s="3">
-        <v>4492589279.743372</v>
+        <v>4674983880.492826</v>
       </c>
       <c r="J5" s="3">
-        <v>4439928328.463231</v>
+        <v>4631542172.564936</v>
       </c>
       <c r="K5" s="3">
-        <v>4399244281.204008</v>
+        <v>4565737095.160592</v>
       </c>
       <c r="L5" s="3">
-        <v>4421954997.706984</v>
+        <v>4590330470.366159</v>
       </c>
       <c r="M5" s="3">
-        <v>4331657750.37428</v>
+        <v>4502707530.561469</v>
       </c>
       <c r="N5" s="3">
-        <v>4606016896.876914</v>
+        <v>4830213419.779459</v>
       </c>
       <c r="O5" s="4">
-        <v>0.7111785533636823</v>
+        <v>0.6965</v>
       </c>
       <c r="P5" s="4">
-        <v>0.7516439049064239</v>
+        <v>0.7585</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.7546788062721295</v>
+        <v>0.757</v>
       </c>
       <c r="R5" s="4">
-        <v>0.813859382903389</v>
+        <v>0.8165</v>
       </c>
       <c r="S5" s="4">
-        <v>0.6469398077895802</v>
+        <v>0.6075</v>
       </c>
       <c r="T5" s="5">
-        <v>6264.299056983244</v>
+        <v>6451.417047245686</v>
       </c>
       <c r="U5" s="5">
-        <v>6085.624096257529</v>
+        <v>6283.708124062504</v>
       </c>
       <c r="V5" s="5">
-        <v>5938.528748366973</v>
+        <v>6104.477469772462</v>
       </c>
       <c r="W5" s="5">
-        <v>5883.384853664924</v>
+        <v>6049.571908767636</v>
       </c>
       <c r="X5" s="5">
-        <v>5696.102030842227</v>
+        <v>5864.729340154214</v>
       </c>
       <c r="Y5" s="5">
-        <v>6020.110830378724</v>
+        <v>6253.148664020686</v>
       </c>
       <c r="Z5" s="5">
-        <v>-178.6749607257143</v>
+        <v>-167.7089231831824</v>
       </c>
       <c r="AA5" s="5">
-        <v>-325.770308616271</v>
+        <v>-346.9395774732238</v>
       </c>
       <c r="AB5" s="5">
-        <v>-380.9142033183198</v>
+        <v>-401.8451384780501</v>
       </c>
       <c r="AC5" s="5">
-        <v>-568.197026141017</v>
+        <v>-586.6877070914725</v>
       </c>
       <c r="AD5" s="5">
-        <v>-244.1882266045195</v>
+        <v>-198.2683832250004</v>
       </c>
       <c r="AE5" s="4">
-        <v>-0.02852273799516847</v>
+        <v>-0.02599567226161303</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.05200427145206499</v>
+        <v>-0.05377726706124875</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.06080715493518607</v>
+        <v>-0.06228788737965874</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.09070400709998172</v>
+        <v>-0.09093935530674579</v>
       </c>
       <c r="AI5" s="4">
-        <v>-0.03898093376182388</v>
+        <v>-0.03073253236816365</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -850,106 +850,106 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>2132</v>
+        <v>2145</v>
       </c>
       <c r="C6" s="2">
-        <v>1070610</v>
+        <v>1078141.5</v>
       </c>
       <c r="D6" s="2">
-        <v>1086599.5</v>
+        <v>1094387.5</v>
       </c>
       <c r="E6" s="2">
-        <v>1097778.5</v>
+        <v>1105673.5</v>
       </c>
       <c r="F6" s="2">
-        <v>1106227</v>
+        <v>1114271</v>
       </c>
       <c r="G6" s="2">
-        <v>1109482.5</v>
+        <v>1117688.5</v>
       </c>
       <c r="H6" s="2">
-        <v>1104213.5</v>
+        <v>1112339.5</v>
       </c>
       <c r="I6" s="3">
-        <v>8276601906.599</v>
+        <v>8587802239.529158</v>
       </c>
       <c r="J6" s="3">
-        <v>8109547338.001504</v>
+        <v>8438236175.101665</v>
       </c>
       <c r="K6" s="3">
-        <v>8045840242.740464</v>
+        <v>8330896633.075828</v>
       </c>
       <c r="L6" s="3">
-        <v>8088271392.502736</v>
+        <v>8382548047.106243</v>
       </c>
       <c r="M6" s="3">
-        <v>7854145149.792853</v>
+        <v>8145585930.761225</v>
       </c>
       <c r="N6" s="3">
-        <v>8114336299.011919</v>
+        <v>8497378242.270211</v>
       </c>
       <c r="O6" s="4">
-        <v>0.7645403377110694</v>
+        <v>0.7501165501165501</v>
       </c>
       <c r="P6" s="4">
-        <v>0.7692307692307693</v>
+        <v>0.7757575757575758</v>
       </c>
       <c r="Q6" s="4">
-        <v>0.74812382739212</v>
+        <v>0.7557109557109557</v>
       </c>
       <c r="R6" s="4">
-        <v>0.8208255159474672</v>
+        <v>0.8237762237762237</v>
       </c>
       <c r="S6" s="4">
-        <v>0.6880863039399625</v>
+        <v>0.6554778554778555</v>
       </c>
       <c r="T6" s="5">
-        <v>7730.73472749087</v>
+        <v>7965.375824536165</v>
       </c>
       <c r="U6" s="5">
-        <v>7463.234925104884</v>
+        <v>7710.464689245505</v>
       </c>
       <c r="V6" s="5">
-        <v>7329.201877009309</v>
+        <v>7534.680566257423</v>
       </c>
       <c r="W6" s="5">
-        <v>7311.583782083367</v>
+        <v>7522.898870298377</v>
       </c>
       <c r="X6" s="5">
-        <v>7079.106835657934</v>
+        <v>7287.88560565956</v>
       </c>
       <c r="Y6" s="5">
-        <v>7348.521186357456</v>
+        <v>7639.194906114735</v>
       </c>
       <c r="Z6" s="5">
-        <v>-267.4998023859862</v>
+        <v>-254.9111352906602</v>
       </c>
       <c r="AA6" s="5">
-        <v>-401.5328504815607</v>
+        <v>-430.6952582787417</v>
       </c>
       <c r="AB6" s="5">
-        <v>-419.1509454075031</v>
+        <v>-442.476954237788</v>
       </c>
       <c r="AC6" s="5">
-        <v>-651.6278918329363</v>
+        <v>-677.4902188766055</v>
       </c>
       <c r="AD6" s="5">
-        <v>-382.2135411334139</v>
+        <v>-326.1809184214299</v>
       </c>
       <c r="AE6" s="4">
-        <v>-0.03460211892082443</v>
+        <v>-0.03200239899609558</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.05193980451220115</v>
+        <v>-0.05407092744476016</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.05421877223609572</v>
+        <v>-0.0555500410758778</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.08429055126102258</v>
+        <v>-0.0850543946450959</v>
       </c>
       <c r="AI6" s="4">
-        <v>-0.04944077821920911</v>
+        <v>-0.04094984663707613</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -957,106 +957,106 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>853</v>
+        <v>921</v>
       </c>
       <c r="C7" s="2">
-        <v>272370.5</v>
+        <v>291918.5</v>
       </c>
       <c r="D7" s="2">
-        <v>275070.5</v>
+        <v>294987</v>
       </c>
       <c r="E7" s="2">
-        <v>278505</v>
+        <v>298528.5</v>
       </c>
       <c r="F7" s="2">
-        <v>281734</v>
+        <v>301932.5</v>
       </c>
       <c r="G7" s="2">
-        <v>284487</v>
+        <v>304584</v>
       </c>
       <c r="H7" s="2">
-        <v>285165</v>
+        <v>305385</v>
       </c>
       <c r="I7" s="3">
-        <v>1829119704.047315</v>
+        <v>2001404518.309863</v>
       </c>
       <c r="J7" s="3">
-        <v>1767572366.328891</v>
+        <v>1944147689.418627</v>
       </c>
       <c r="K7" s="3">
-        <v>1773451732.905504</v>
+        <v>1942827644.816311</v>
       </c>
       <c r="L7" s="3">
-        <v>1783856268.46569</v>
+        <v>1950808266.884293</v>
       </c>
       <c r="M7" s="3">
-        <v>1763982872.839947</v>
+        <v>1922453469.671984</v>
       </c>
       <c r="N7" s="3">
-        <v>1846979964.771495</v>
+        <v>2038090522.457449</v>
       </c>
       <c r="O7" s="4">
-        <v>0.7561547479484173</v>
+        <v>0.752442996742671</v>
       </c>
       <c r="P7" s="4">
-        <v>0.7456037514654161</v>
+        <v>0.757871878393051</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.7268464243845252</v>
+        <v>0.7361563517915309</v>
       </c>
       <c r="R7" s="4">
-        <v>0.7690504103165299</v>
+        <v>0.7698154180238871</v>
       </c>
       <c r="S7" s="4">
-        <v>0.6400937866354045</v>
+        <v>0.6015200868621065</v>
       </c>
       <c r="T7" s="5">
-        <v>6715.557316402897</v>
+        <v>6856.038648834738</v>
       </c>
       <c r="U7" s="5">
-        <v>6425.888513413438</v>
+        <v>6590.621584743148</v>
       </c>
       <c r="V7" s="5">
-        <v>6367.755454679464</v>
+        <v>6508.013957850962</v>
       </c>
       <c r="W7" s="5">
-        <v>6331.703906754919</v>
+        <v>6461.074137048158</v>
       </c>
       <c r="X7" s="5">
-        <v>6200.574623233917</v>
+        <v>6311.734922622278</v>
       </c>
       <c r="Y7" s="5">
-        <v>6476.881681733364</v>
+        <v>6673.839653085282</v>
       </c>
       <c r="Z7" s="5">
-        <v>-289.6688029894594</v>
+        <v>-265.41706409159</v>
       </c>
       <c r="AA7" s="5">
-        <v>-347.8018617234329</v>
+        <v>-348.0246909837761</v>
       </c>
       <c r="AB7" s="5">
-        <v>-383.853409647978</v>
+        <v>-394.9645117865794</v>
       </c>
       <c r="AC7" s="5">
-        <v>-514.9826931689804</v>
+        <v>-544.3037262124599</v>
       </c>
       <c r="AD7" s="5">
-        <v>-238.6756346695338</v>
+        <v>-182.1989957494552</v>
       </c>
       <c r="AE7" s="4">
-        <v>-0.04313399310611754</v>
+        <v>-0.03871288913120419</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.05179046880798999</v>
+        <v>-0.05076177495629008</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.0571588315850432</v>
+        <v>-0.05760826798339413</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.07668502685713419</v>
+        <v>-0.07939041100723232</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.03554070398395126</v>
+        <v>-0.02657496625699773</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1064,106 +1064,106 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>2776</v>
+        <v>2804</v>
       </c>
       <c r="C8" s="2">
-        <v>923251</v>
+        <v>935337</v>
       </c>
       <c r="D8" s="2">
-        <v>936427</v>
+        <v>948861.5</v>
       </c>
       <c r="E8" s="2">
-        <v>950363</v>
+        <v>962869</v>
       </c>
       <c r="F8" s="2">
-        <v>961402.5</v>
+        <v>973913.5</v>
       </c>
       <c r="G8" s="2">
-        <v>970645</v>
+        <v>983226.5</v>
       </c>
       <c r="H8" s="2">
-        <v>974400</v>
+        <v>987050.5</v>
       </c>
       <c r="I8" s="3">
-        <v>5959152943.871764</v>
+        <v>6221284276.6717</v>
       </c>
       <c r="J8" s="3">
-        <v>5810259650.273874</v>
+        <v>6089859631.257184</v>
       </c>
       <c r="K8" s="3">
-        <v>5820587323.240251</v>
+        <v>6067246013.138644</v>
       </c>
       <c r="L8" s="3">
-        <v>5850284223.438849</v>
+        <v>6100326525.057209</v>
       </c>
       <c r="M8" s="3">
-        <v>5801456586.886761</v>
+        <v>6053006021.077117</v>
       </c>
       <c r="N8" s="3">
-        <v>6043277356.649564</v>
+        <v>6365848584.627169</v>
       </c>
       <c r="O8" s="4">
-        <v>0.770893371757925</v>
+        <v>0.7560627674750356</v>
       </c>
       <c r="P8" s="4">
-        <v>0.7921469740634006</v>
+        <v>0.800641940085592</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.7881844380403458</v>
+        <v>0.7949358059914408</v>
       </c>
       <c r="R8" s="4">
-        <v>0.8332132564841499</v>
+        <v>0.8359486447931527</v>
       </c>
       <c r="S8" s="4">
-        <v>0.6884005763688761</v>
+        <v>0.6501426533523538</v>
       </c>
       <c r="T8" s="5">
-        <v>6454.531805404776</v>
+        <v>6651.382631791214</v>
       </c>
       <c r="U8" s="5">
-        <v>6204.711793096391</v>
+        <v>6418.070109554644</v>
       </c>
       <c r="V8" s="5">
-        <v>6124.59378494349</v>
+        <v>6301.216482344581</v>
       </c>
       <c r="W8" s="5">
-        <v>6085.156033439532</v>
+        <v>6263.725192285772</v>
       </c>
       <c r="X8" s="5">
-        <v>5976.908743038661</v>
+        <v>6156.268185486372</v>
       </c>
       <c r="Y8" s="5">
-        <v>6202.049832357927</v>
+        <v>6449.364631928324</v>
       </c>
       <c r="Z8" s="5">
-        <v>-249.8200123083843</v>
+        <v>-233.3125222365707</v>
       </c>
       <c r="AA8" s="5">
-        <v>-329.9380204612853</v>
+        <v>-350.1661494466334</v>
       </c>
       <c r="AB8" s="5">
-        <v>-369.375771965244</v>
+        <v>-387.6574395054422</v>
       </c>
       <c r="AC8" s="5">
-        <v>-477.6230623661149</v>
+        <v>-495.1144463048422</v>
       </c>
       <c r="AD8" s="5">
-        <v>-252.4819730468489</v>
+        <v>-202.0179998628901</v>
       </c>
       <c r="AE8" s="4">
-        <v>-0.03870459079606592</v>
+        <v>-0.03507729672946802</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.05111726619504886</v>
+        <v>-0.05264561803631107</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.05722735329244844</v>
+        <v>-0.05828223408056232</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.07399809572030802</v>
+        <v>-0.07443782348926575</v>
       </c>
       <c r="AI8" s="4">
-        <v>-0.03911700812062469</v>
+        <v>-0.03037233174608189</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1171,106 +1171,106 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>2794</v>
+        <v>2821</v>
       </c>
       <c r="C9" s="2">
-        <v>1051493.5</v>
+        <v>1062350.5</v>
       </c>
       <c r="D9" s="2">
-        <v>1070056</v>
+        <v>1080699</v>
       </c>
       <c r="E9" s="2">
-        <v>1085270.5</v>
+        <v>1096869.5</v>
       </c>
       <c r="F9" s="2">
-        <v>1099211.5</v>
+        <v>1111078</v>
       </c>
       <c r="G9" s="2">
-        <v>1112866</v>
+        <v>1124390.5</v>
       </c>
       <c r="H9" s="2">
-        <v>1121019</v>
+        <v>1132201</v>
       </c>
       <c r="I9" s="3">
-        <v>6433931311.054861</v>
+        <v>6691695369.266044</v>
       </c>
       <c r="J9" s="3">
-        <v>6348008285.547463</v>
+        <v>6619958112.170535</v>
       </c>
       <c r="K9" s="3">
-        <v>6344550385.639488</v>
+        <v>6590367392.511132</v>
       </c>
       <c r="L9" s="3">
-        <v>6430165491.548478</v>
+        <v>6684209843.596411</v>
       </c>
       <c r="M9" s="3">
-        <v>6363876968.513569</v>
+        <v>6612731275.032206</v>
       </c>
       <c r="N9" s="3">
-        <v>6730323471.86068</v>
+        <v>7056610922.536235</v>
       </c>
       <c r="O9" s="4">
-        <v>0.7072297780959198</v>
+        <v>0.6876993973768167</v>
       </c>
       <c r="P9" s="4">
-        <v>0.7559055118110236</v>
+        <v>0.7624955689471818</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.7168933428775949</v>
+        <v>0.7238567883729174</v>
       </c>
       <c r="R9" s="4">
-        <v>0.7759484609878311</v>
+        <v>0.7773839064161645</v>
       </c>
       <c r="S9" s="4">
-        <v>0.5801717967072297</v>
+        <v>0.5398794753633464</v>
       </c>
       <c r="T9" s="5">
-        <v>6118.850293468158</v>
+        <v>6298.952529571025</v>
       </c>
       <c r="U9" s="5">
-        <v>5932.40754273371</v>
+        <v>6125.626203198611</v>
       </c>
       <c r="V9" s="5">
-        <v>5846.054403615954</v>
+        <v>6008.342280017023</v>
       </c>
       <c r="W9" s="5">
-        <v>5849.798234050934</v>
+        <v>6015.968135087195</v>
       </c>
       <c r="X9" s="5">
-        <v>5718.457539823814</v>
+        <v>5881.169642603887</v>
       </c>
       <c r="Y9" s="5">
-        <v>6003.755040602059</v>
+        <v>6232.648551393467</v>
       </c>
       <c r="Z9" s="5">
-        <v>-186.4427507344481</v>
+        <v>-173.3263263724148</v>
       </c>
       <c r="AA9" s="5">
-        <v>-272.7958898522047</v>
+        <v>-290.6102495540026</v>
       </c>
       <c r="AB9" s="5">
-        <v>-269.052059417224</v>
+        <v>-282.9843944838303</v>
       </c>
       <c r="AC9" s="5">
-        <v>-400.3927536443443</v>
+        <v>-417.7828869671384</v>
       </c>
       <c r="AD9" s="5">
-        <v>-115.0952528660991</v>
+        <v>-66.30397817755875</v>
       </c>
       <c r="AE9" s="4">
-        <v>-0.03047022590722226</v>
+        <v>-0.02751669036378956</v>
       </c>
       <c r="AF9" s="4">
-        <v>-0.04458286716761362</v>
+        <v>-0.04613628189603036</v>
       </c>
       <c r="AG9" s="4">
-        <v>-0.04397101522559488</v>
+        <v>-0.04492562742064388</v>
       </c>
       <c r="AH9" s="4">
-        <v>-0.06543594538859066</v>
+        <v>-0.06632577162723763</v>
       </c>
       <c r="AI9" s="4">
-        <v>-0.01880994751399012</v>
+        <v>-0.01052619111928343</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1278,106 +1278,106 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>1706</v>
+        <v>1724</v>
       </c>
       <c r="C10" s="2">
-        <v>570762</v>
+        <v>573963.5</v>
       </c>
       <c r="D10" s="2">
-        <v>578735</v>
+        <v>582131.5</v>
       </c>
       <c r="E10" s="2">
-        <v>584523</v>
+        <v>588162</v>
       </c>
       <c r="F10" s="2">
-        <v>590081</v>
+        <v>593941.5</v>
       </c>
       <c r="G10" s="2">
-        <v>594464.5</v>
+        <v>598239.5</v>
       </c>
       <c r="H10" s="2">
-        <v>596000.5</v>
+        <v>599604</v>
       </c>
       <c r="I10" s="3">
-        <v>3506623273.280505</v>
+        <v>3628043660.549288</v>
       </c>
       <c r="J10" s="3">
-        <v>3455335077.422535</v>
+        <v>3589110628.283094</v>
       </c>
       <c r="K10" s="3">
-        <v>3420868913.955131</v>
+        <v>3536223445.155694</v>
       </c>
       <c r="L10" s="3">
-        <v>3448441759.298356</v>
+        <v>3577291223.97623</v>
       </c>
       <c r="M10" s="3">
-        <v>3392540506.063832</v>
+        <v>3509701659.317124</v>
       </c>
       <c r="N10" s="3">
-        <v>3610553223.380827</v>
+        <v>3772897285.776331</v>
       </c>
       <c r="O10" s="4">
-        <v>0.6729191090269636</v>
+        <v>0.6537122969837587</v>
       </c>
       <c r="P10" s="4">
-        <v>0.7004689331770223</v>
+        <v>0.7088167053364269</v>
       </c>
       <c r="Q10" s="4">
-        <v>0.6547479484173505</v>
+        <v>0.6606728538283063</v>
       </c>
       <c r="R10" s="4">
-        <v>0.7391559202813599</v>
+        <v>0.7412993039443155</v>
       </c>
       <c r="S10" s="4">
-        <v>0.5228604923798359</v>
+        <v>0.4849187935034803</v>
       </c>
       <c r="T10" s="5">
-        <v>6143.757421272799</v>
+        <v>6321.035502343421</v>
       </c>
       <c r="U10" s="5">
-        <v>5970.496129355466</v>
+        <v>6165.463693827072</v>
       </c>
       <c r="V10" s="5">
-        <v>5852.411135156583</v>
+        <v>6012.328992957203</v>
       </c>
       <c r="W10" s="5">
-        <v>5844.014227365999</v>
+        <v>6022.968969126135</v>
       </c>
       <c r="X10" s="5">
-        <v>5706.884946138638</v>
+        <v>5866.716690083359</v>
       </c>
       <c r="Y10" s="5">
-        <v>6057.970124825109</v>
+        <v>6292.315070907351</v>
       </c>
       <c r="Z10" s="5">
-        <v>-173.2612919173325</v>
+        <v>-155.5718085163489</v>
       </c>
       <c r="AA10" s="5">
-        <v>-291.3462861162161</v>
+        <v>-308.7065093862184</v>
       </c>
       <c r="AB10" s="5">
-        <v>-299.7431939068001</v>
+        <v>-298.0665332172866</v>
       </c>
       <c r="AC10" s="5">
-        <v>-436.8724751341606</v>
+        <v>-454.3188122600623</v>
       </c>
       <c r="AD10" s="5">
-        <v>-85.78729644768919</v>
+        <v>-28.72043143607061</v>
       </c>
       <c r="AE10" s="4">
-        <v>-0.02820119351024741</v>
+        <v>-0.02461175996538434</v>
       </c>
       <c r="AF10" s="4">
-        <v>-0.0474215152290075</v>
+        <v>-0.04883796480367342</v>
       </c>
       <c r="AG10" s="4">
-        <v>-0.04878825340156456</v>
+        <v>-0.04715470006564326</v>
       </c>
       <c r="AH10" s="4">
-        <v>-0.07110835359831869</v>
+        <v>-0.07187411177988656</v>
       </c>
       <c r="AI10" s="4">
-        <v>-0.01396332741762396</v>
+        <v>-0.004543627610606338</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1385,106 +1385,106 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>1934</v>
+        <v>1987</v>
       </c>
       <c r="C11" s="2">
-        <v>719760.5</v>
+        <v>737607.5</v>
       </c>
       <c r="D11" s="2">
-        <v>732088.5</v>
+        <v>750341</v>
       </c>
       <c r="E11" s="2">
-        <v>741269.5</v>
+        <v>759806</v>
       </c>
       <c r="F11" s="2">
-        <v>750985</v>
+        <v>769937</v>
       </c>
       <c r="G11" s="2">
-        <v>757732</v>
+        <v>776831</v>
       </c>
       <c r="H11" s="2">
-        <v>760098</v>
+        <v>779017.5</v>
       </c>
       <c r="I11" s="3">
-        <v>4693698414.146843</v>
+        <v>4953370302.937759</v>
       </c>
       <c r="J11" s="3">
-        <v>4598180429.977851</v>
+        <v>4868647241.92746</v>
       </c>
       <c r="K11" s="3">
-        <v>4603332041.951568</v>
+        <v>4853207742.646278</v>
       </c>
       <c r="L11" s="3">
-        <v>4635506918.00151</v>
+        <v>4892664006.609465</v>
       </c>
       <c r="M11" s="3">
-        <v>4582083727.028511</v>
+        <v>4833487223.612272</v>
       </c>
       <c r="N11" s="3">
-        <v>4779957404.706257</v>
+        <v>5084219618.662105</v>
       </c>
       <c r="O11" s="4">
-        <v>0.7306101344364012</v>
+        <v>0.7171615500754907</v>
       </c>
       <c r="P11" s="4">
-        <v>0.7285418821096173</v>
+        <v>0.7367891293407146</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.7119958634953464</v>
+        <v>0.7232008052340211</v>
       </c>
       <c r="R11" s="4">
-        <v>0.7699069286452948</v>
+        <v>0.7730246602918973</v>
       </c>
       <c r="S11" s="4">
-        <v>0.6240951396070321</v>
+        <v>0.5827881227981883</v>
       </c>
       <c r="T11" s="5">
-        <v>6521.194778189193</v>
+        <v>6715.455446070924</v>
       </c>
       <c r="U11" s="5">
-        <v>6280.907882008597</v>
+        <v>6488.579515083755</v>
       </c>
       <c r="V11" s="5">
-        <v>6210.065356731347</v>
+        <v>6387.430136964275</v>
       </c>
       <c r="W11" s="5">
-        <v>6172.569249720713</v>
+        <v>6354.629023685658</v>
       </c>
       <c r="X11" s="5">
-        <v>6047.103365079621</v>
+        <v>6222.057595039683</v>
       </c>
       <c r="Y11" s="5">
-        <v>6288.606738481429</v>
+        <v>6526.451098546701</v>
       </c>
       <c r="Z11" s="5">
-        <v>-240.2868961805962</v>
+        <v>-226.8759309871693</v>
       </c>
       <c r="AA11" s="5">
-        <v>-311.1294214578456</v>
+        <v>-328.0253091066488</v>
       </c>
       <c r="AB11" s="5">
-        <v>-348.6255284684803</v>
+        <v>-360.8264223852657</v>
       </c>
       <c r="AC11" s="5">
-        <v>-474.0914131095724</v>
+        <v>-493.3978510312409</v>
       </c>
       <c r="AD11" s="5">
-        <v>-232.5880397077644</v>
+        <v>-189.0043475242228</v>
       </c>
       <c r="AE11" s="4">
-        <v>-0.03684706627445944</v>
+        <v>-0.03378414655701567</v>
       </c>
       <c r="AF11" s="4">
-        <v>-0.04771049355839674</v>
+        <v>-0.04884632349077223</v>
       </c>
       <c r="AG11" s="4">
-        <v>-0.05346037656082503</v>
+        <v>-0.05373074473993833</v>
       </c>
       <c r="AH11" s="4">
-        <v>-0.07270008475980816</v>
+        <v>-0.0734719863743446</v>
       </c>
       <c r="AI11" s="4">
-        <v>-0.03566647640792442</v>
+        <v>-0.02814468043784069</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1492,106 +1492,106 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>1727</v>
+        <v>1770</v>
       </c>
       <c r="C12" s="2">
-        <v>626429.5</v>
+        <v>644009</v>
       </c>
       <c r="D12" s="2">
-        <v>635047</v>
+        <v>652518</v>
       </c>
       <c r="E12" s="2">
-        <v>641895.5</v>
+        <v>659279</v>
       </c>
       <c r="F12" s="2">
-        <v>648990</v>
+        <v>666431.5</v>
       </c>
       <c r="G12" s="2">
-        <v>652427</v>
+        <v>669882.5</v>
       </c>
       <c r="H12" s="2">
-        <v>652097</v>
+        <v>669626</v>
       </c>
       <c r="I12" s="3">
-        <v>4047638095.340007</v>
+        <v>4280222259.770509</v>
       </c>
       <c r="J12" s="3">
-        <v>3902603647.954151</v>
+        <v>4138299442.139865</v>
       </c>
       <c r="K12" s="3">
-        <v>3891547801.611442</v>
+        <v>4110202006.369778</v>
       </c>
       <c r="L12" s="3">
-        <v>3918131835.529537</v>
+        <v>4135364815.301089</v>
       </c>
       <c r="M12" s="3">
-        <v>3891307093.331212</v>
+        <v>4108768207.313097</v>
       </c>
       <c r="N12" s="3">
-        <v>4070846790.876235</v>
+        <v>4332440070.201941</v>
       </c>
       <c r="O12" s="4">
-        <v>0.7672264041690793</v>
+        <v>0.7491525423728813</v>
       </c>
       <c r="P12" s="4">
-        <v>0.7990735379270412</v>
+        <v>0.8016949152542373</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.7730167921250723</v>
+        <v>0.7757062146892655</v>
       </c>
       <c r="R12" s="4">
-        <v>0.8048639258830341</v>
+        <v>0.8045197740112995</v>
       </c>
       <c r="S12" s="4">
-        <v>0.6282570932252461</v>
+        <v>0.5875706214689266</v>
       </c>
       <c r="T12" s="5">
-        <v>6461.442341620258</v>
+        <v>6646.21497490021</v>
       </c>
       <c r="U12" s="5">
-        <v>6145.37766173866</v>
+        <v>6342.04641425963</v>
       </c>
       <c r="V12" s="5">
-        <v>6062.587760175046</v>
+        <v>6234.389395642479</v>
       </c>
       <c r="W12" s="5">
-        <v>6037.276129878021</v>
+        <v>6205.236119992961</v>
       </c>
       <c r="X12" s="5">
-        <v>5964.356308569712</v>
+        <v>6133.565524271939</v>
       </c>
       <c r="Y12" s="5">
-        <v>6242.7013019171</v>
+        <v>6469.940041458876</v>
       </c>
       <c r="Z12" s="5">
-        <v>-316.0646798815978</v>
+        <v>-304.1685606405799</v>
       </c>
       <c r="AA12" s="5">
-        <v>-398.8545814452118</v>
+        <v>-411.8255792577311</v>
       </c>
       <c r="AB12" s="5">
-        <v>-424.1662117422366</v>
+        <v>-440.9788549072491</v>
       </c>
       <c r="AC12" s="5">
-        <v>-497.0860330505457</v>
+        <v>-512.6494506282716</v>
       </c>
       <c r="AD12" s="5">
-        <v>-218.7410397031581</v>
+        <v>-176.2749334413338</v>
       </c>
       <c r="AE12" s="4">
-        <v>-0.0489154995388138</v>
+        <v>-0.04576568193916219</v>
       </c>
       <c r="AF12" s="4">
-        <v>-0.06172841300092691</v>
+        <v>-0.06196392695887998</v>
       </c>
       <c r="AG12" s="4">
-        <v>-0.06564574739142115</v>
+        <v>-0.06635037484833539</v>
       </c>
       <c r="AH12" s="4">
-        <v>-0.07693112570991345</v>
+        <v>-0.077134045853816</v>
       </c>
       <c r="AI12" s="4">
-        <v>-0.03385328354540529</v>
+        <v>-0.02652260483704572</v>
       </c>
     </row>
   </sheetData>
